--- a/Documentation/Planning/GameSystems/GameSystemTasks.xlsx
+++ b/Documentation/Planning/GameSystems/GameSystemTasks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>RPG Systems</t>
   </si>
@@ -155,17 +155,101 @@
   </si>
   <si>
     <t>Level with Character or Enemy Model</t>
+  </si>
+  <si>
+    <t>Prototype combat system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement function for pototype base attack which returns type of attack (melee, range), range, damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement function for pototype skill which returns type of attack (melee, range), range, damage, special effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a mechanism for cooldown and cast time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a damage calculator funciton to calculate the actual damage taken based on attacker/defender stat, itme, and etc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Within each function, it calls appropriate animation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design a state machine for the combat between two characters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement a simple skill function and incorporate into the combat sytem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff and Debuff handler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define the rough catagories of character classes (tanker, caster, assassin, supporter, etc)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define features that each class should emphasize ( tank with huge shield, caster with psychic power, etc)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design basic skills with advantage( more damage, super armor, health regen, etc) and penalty (vulneragle time after casting, long casting time, etc) for each skills</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend the attach/ability functions with more details ( AOE, dot, crit, etc) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item System</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character System</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character Class + Skill Design</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend character object to have stats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement a prototpye character object with health, mana, attack damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations for basic attacks and skills should be available as they are implemented</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement a prototpye item object (damage, armor, attack speed)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorporate into character object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +257,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -181,9 +265,16 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,19 +306,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="21"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,9 +327,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="21"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -266,7 +360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,10 +434,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,549 +643,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="1" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="64.125" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" outlineLevel="1">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" outlineLevel="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="33" outlineLevel="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" outlineLevel="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="1:4" outlineLevel="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
+    <row r="13" spans="1:4" ht="33" outlineLevel="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+    <row r="14" spans="1:4" ht="33" outlineLevel="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" outlineLevel="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="16" spans="1:4" outlineLevel="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" outlineLevel="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="49.5" outlineLevel="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A23" s="10">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" outlineLevel="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" outlineLevel="1">
+      <c r="A41" s="10">
+        <v>1</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" outlineLevel="1">
+      <c r="A42" s="10">
+        <v>2</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A43" s="10">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A46" s="10">
+        <v>4</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10">
+        <v>3</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="10">
+        <v>5</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="54" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" outlineLevel="1">
+      <c r="A57" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="B57" s="10"/>
+      <c r="C57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A58" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="B58" s="10"/>
+      <c r="C58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A59" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14">
+      <c r="B59" s="10"/>
+      <c r="C59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A60" s="10">
+        <v>4</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A61" s="10">
+        <v>5</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A62" s="10">
+        <v>6</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A63" s="10">
+        <v>7</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A64" s="10">
+        <v>8</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="10">
+        <v>9</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="10">
+        <v>10</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1">
+      <c r="A67" s="10">
+        <v>11</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1">
+      <c r="A69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="33" outlineLevel="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1">
+      <c r="A72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14">
+      <c r="B73" s="10"/>
+      <c r="C73" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14">
-        <v>1</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14">
-        <v>2</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14">
+      <c r="B74" s="10"/>
+      <c r="C74" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="10">
         <v>3</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>5</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>6</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>1</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>2</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
-        <v>3</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>4</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>5</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>6</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>7</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>8</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
-        <v>9</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>10</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
-        <v>11</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" ht="10.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>1</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
-        <v>2</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
-        <v>3</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="11" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="2"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B69:C69"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
